--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-4.247034401476801</v>
       </c>
       <c r="AG17">
-        <v>-5.210209911466245</v>
+        <v>-9.171727975571509</v>
       </c>
       <c r="AH17">
         <v>-4.352425014431304</v>
@@ -2451,19 +2451,19 @@
         <v>-12.1986023424</v>
       </c>
       <c r="AG18">
-        <v>17.92194299430632</v>
+        <v>-35.38741355739603</v>
       </c>
       <c r="AH18">
-        <v>-0.9164352768978534</v>
+        <v>31.54369540926341</v>
       </c>
       <c r="AI18">
-        <v>-5.694190915127639</v>
+        <v>-7.006249401853559</v>
       </c>
       <c r="AJ18">
-        <v>-2.608215948579529</v>
+        <v>-8.773175314851734</v>
       </c>
       <c r="AK18">
-        <v>-1.897775264882628</v>
+        <v>-2.664090177971845</v>
       </c>
       <c r="AL18">
         <v>-1.761645650979182</v>
@@ -2522,31 +2522,31 @@
         <v>-12.1986023424</v>
       </c>
       <c r="AG19">
-        <v>32.30894406640628</v>
+        <v>-37.02357047951496</v>
       </c>
       <c r="AH19">
-        <v>-3.161804390400003</v>
+        <v>50.80309717929863</v>
       </c>
       <c r="AI19">
-        <v>-9.259896422400004</v>
+        <v>-12.66856409363487</v>
       </c>
       <c r="AJ19">
-        <v>12.1815000816919</v>
+        <v>-19.76612614777711</v>
       </c>
       <c r="AK19">
-        <v>22.87548668341248</v>
+        <v>11.21653887140448</v>
       </c>
       <c r="AL19">
-        <v>2.211960525313206</v>
+        <v>22.41808675646528</v>
       </c>
       <c r="AM19">
-        <v>3.750424156851184</v>
+        <v>0.4216558051304942</v>
       </c>
       <c r="AN19">
-        <v>4.863085601670813</v>
+        <v>3.555435198576862</v>
       </c>
       <c r="AO19">
-        <v>4.787836378515364</v>
+        <v>5.042810166847089</v>
       </c>
       <c r="AP19">
         <v>5.20787683103745</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-9.259896422400015</v>
-      </c>
       <c r="AJ20">
-        <v>14.66750319568422</v>
+        <v>-19.76612614777711</v>
       </c>
       <c r="AK20">
-        <v>28.16413532160002</v>
+        <v>13.57228818924523</v>
       </c>
       <c r="AL20">
-        <v>-4.327930935899971</v>
+        <v>27.23725989922563</v>
       </c>
       <c r="AM20">
-        <v>1.694448575331275</v>
+        <v>-6.821105596638944</v>
       </c>
       <c r="AN20">
-        <v>5.870037016039187</v>
+        <v>-0.5376914776811126</v>
       </c>
       <c r="AO20">
-        <v>0.1238442324989597</v>
+        <v>3.311762715735989</v>
       </c>
       <c r="AP20">
-        <v>0.1996286546173343</v>
+        <v>4.121778551214828</v>
       </c>
       <c r="AQ20">
-        <v>-1.15781484339289</v>
+        <v>-1.548915741813683</v>
       </c>
       <c r="AR20">
-        <v>-1.44371442952016</v>
+        <v>-2.16280394131193</v>
       </c>
       <c r="AS20">
-        <v>-0.49899188013105</v>
+        <v>-0.5369231962161769</v>
       </c>
       <c r="AT20">
         <v>-0.9008525709169546</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.694448575331275</v>
-      </c>
       <c r="AN21">
-        <v>6.303762530086598</v>
+        <v>-0.5376914776811015</v>
       </c>
       <c r="AO21">
-        <v>-0.5946692626867311</v>
+        <v>3.31250129641798</v>
       </c>
       <c r="AP21">
-        <v>-1.985036624673642</v>
+        <v>4.216800125222386</v>
       </c>
       <c r="AQ21">
-        <v>-2.927305789734247</v>
+        <v>-3.955662492975165</v>
       </c>
       <c r="AR21">
-        <v>-1.24582517146522</v>
+        <v>-4.829433539906846</v>
       </c>
       <c r="AS21">
-        <v>0.5969365658798464</v>
+        <v>0.09950561885601061</v>
       </c>
       <c r="AT21">
-        <v>-0.01592365107300209</v>
+        <v>-0.9756765446553795</v>
       </c>
       <c r="AU21">
-        <v>0.3201030582971054</v>
+        <v>0.5260208614076722</v>
       </c>
       <c r="AV21">
-        <v>0.06625622369935691</v>
+        <v>-0.2443666741802408</v>
       </c>
       <c r="AW21">
-        <v>0.5084754301873051</v>
+        <v>0.4276194584983628</v>
       </c>
       <c r="AX21">
         <v>0.2738544794132824</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-2.927305789734225</v>
-      </c>
       <c r="AR22">
-        <v>-1.000226261331283</v>
+        <v>-4.82943353990688</v>
       </c>
       <c r="AS22">
-        <v>0.8024032016000104</v>
+        <v>0.1895529139764429</v>
       </c>
       <c r="AT22">
-        <v>0.4808646914074233</v>
+        <v>-1.058477995956209</v>
       </c>
       <c r="AU22">
-        <v>0.4006004000999486</v>
+        <v>0.9503229429644211</v>
       </c>
       <c r="AV22">
-        <v>-0.1040473946152809</v>
+        <v>-1.649278360889672</v>
       </c>
       <c r="AW22">
-        <v>0.2859187804512109</v>
+        <v>-0.7585430378855507</v>
       </c>
       <c r="AX22">
-        <v>0.7861875694807674</v>
+        <v>0.7075860014263302</v>
       </c>
       <c r="AY22">
-        <v>0.3933715771899493</v>
+        <v>0.3683024421824665</v>
       </c>
       <c r="AZ22">
-        <v>0.9919038146506631</v>
+        <v>1.211873835667365</v>
       </c>
       <c r="BA22">
-        <v>0.9584581489103794</v>
+        <v>0.9621815008244994</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.4006004000999264</v>
-      </c>
       <c r="AV23">
-        <v>0</v>
+        <v>-1.649278360889661</v>
       </c>
       <c r="AW23">
-        <v>0.4006004000999486</v>
+        <v>-0.8850270640324731</v>
       </c>
       <c r="AX23">
-        <v>1.286163529364481</v>
+        <v>1.159998310701793</v>
       </c>
       <c r="AY23">
-        <v>0.4005912323909122</v>
+        <v>0.333800292656794</v>
       </c>
       <c r="AZ23">
-        <v>0.8749339604052775</v>
+        <v>1.973770215219273</v>
       </c>
       <c r="BA23">
-        <v>0.3060804787961446</v>
+        <v>0.3540813801726328</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.4005912323908678</v>
-      </c>
       <c r="AZ24">
-        <v>0.8024170520694485</v>
+        <v>1.973770215219273</v>
       </c>
       <c r="BA24">
-        <v>0.1600960256025186</v>
+        <v>0.2190901804872247</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>2.174385030101589</v>
+      </c>
+      <c r="C3">
+        <v>1.265019766896436</v>
+      </c>
+      <c r="D3">
+        <v>0.4618648366506939</v>
+      </c>
+      <c r="E3">
+        <v>0.337821977117625</v>
+      </c>
+      <c r="F3">
+        <v>0.348613976222456</v>
+      </c>
+      <c r="G3">
+        <v>0.02125477897392258</v>
+      </c>
+      <c r="H3">
+        <v>0.1378930438326487</v>
+      </c>
+      <c r="I3">
+        <v>0.1645590530038321</v>
+      </c>
+      <c r="J3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="K3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="L3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="M3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="N3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="O3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="P3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Q3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="R3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="S3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="T3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="U3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="V3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="W3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="X3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Y3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Z3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AA3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AB3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AC3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AD3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AE3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AF3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AG3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AH3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AI3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AK3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AL3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AM3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AN3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AO3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AP3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AR3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AS3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AT3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AU3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AV3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AW3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AX3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AY3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="BA3">
+        <v>0.2361821772587591</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>0.4235526809466261</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>0.4671277234259641</v>
+        <v>1.265019766896436</v>
       </c>
       <c r="D4">
-        <v>0.6466961714006292</v>
+        <v>1.028581259947292</v>
       </c>
       <c r="E4">
-        <v>0.5860699690882987</v>
+        <v>1.858657482882586</v>
       </c>
       <c r="F4">
-        <v>0.5719394752520701</v>
+        <v>-2.340608900318997</v>
       </c>
       <c r="G4">
-        <v>0.5719394752520701</v>
+        <v>-1.890773121057054</v>
       </c>
       <c r="H4">
-        <v>0.5719394752520701</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="I4">
-        <v>0.5719394752520701</v>
+        <v>-0.1878451124955771</v>
       </c>
       <c r="J4">
-        <v>0.5719394752520701</v>
+        <v>0.07112839993437259</v>
       </c>
       <c r="K4">
-        <v>0.5719394752520701</v>
+        <v>0.05207435813390227</v>
       </c>
       <c r="L4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="M4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="N4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="O4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="P4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Q4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="R4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="S4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="T4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="U4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="V4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="W4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="X4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Y4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Z4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AA4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AB4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AC4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AD4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AE4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AF4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AG4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AH4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AI4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AJ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AK4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AL4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AM4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AN4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AO4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AP4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AQ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AR4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AS4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AT4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AU4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AV4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AW4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AX4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AY4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AZ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="BA4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>1.652713177926435</v>
-      </c>
-      <c r="C5">
-        <v>-0.1474887606676356</v>
-      </c>
-      <c r="D5">
-        <v>-0.5718076928962645</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>-0.3042113081857534</v>
+        <v>1.858657482882564</v>
       </c>
       <c r="F5">
-        <v>-0.0412904280341464</v>
+        <v>-3.490791585551434</v>
       </c>
       <c r="G5">
-        <v>-0.0412904280341464</v>
+        <v>-3.246097549514837</v>
       </c>
       <c r="H5">
-        <v>0.1948678350150335</v>
+        <v>1.659950937631938</v>
       </c>
       <c r="I5">
-        <v>0.1948678350150335</v>
+        <v>1.891565607550105</v>
       </c>
       <c r="J5">
-        <v>0.1948678350150335</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="K5">
-        <v>0.1948678350150335</v>
+        <v>1.605821507009142</v>
       </c>
       <c r="L5">
-        <v>0.1948678350150335</v>
+        <v>1.840891710989334</v>
       </c>
       <c r="M5">
-        <v>0.1948678350150335</v>
+        <v>1.840891710989334</v>
       </c>
       <c r="N5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="O5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="P5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Q5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="R5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="S5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="T5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="U5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="V5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="W5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="X5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Y5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Z5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AA5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AB5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AC5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AD5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AE5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AF5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AG5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AH5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AI5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AJ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AK5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AL5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AM5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AN5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AO5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AP5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AQ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AR5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AS5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AT5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AU5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AV5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AW5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AX5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AY5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AZ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="BA5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>2.174385030101611</v>
-      </c>
-      <c r="C6">
-        <v>1.265019766896436</v>
-      </c>
-      <c r="D6">
-        <v>0.4618648366506939</v>
-      </c>
-      <c r="E6">
-        <v>0.337821977117625</v>
-      </c>
-      <c r="F6">
-        <v>0.3486139762225005</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>0.02125477897396699</v>
+        <v>-3.246097549514837</v>
       </c>
       <c r="H6">
-        <v>0.1378930438326487</v>
+        <v>1.609625625600031</v>
       </c>
       <c r="I6">
-        <v>0.1645590530038321</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="J6">
-        <v>0.2361821772587591</v>
+        <v>2.49756057493542</v>
       </c>
       <c r="K6">
-        <v>0.2361821772587591</v>
+        <v>1.113165545862116</v>
       </c>
       <c r="L6">
-        <v>0.2361821772587591</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="M6">
-        <v>0.2361821772587591</v>
+        <v>0.9629872437042719</v>
       </c>
       <c r="N6">
-        <v>0.2361821772587591</v>
+        <v>1.114185601241036</v>
       </c>
       <c r="O6">
-        <v>0.2361821772587591</v>
+        <v>1.114185601241036</v>
       </c>
       <c r="P6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Q6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="R6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="S6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="T6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="U6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="V6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="W6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="X6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Y6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Z6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AA6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AB6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AC6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AD6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AE6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AF6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AG6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AH6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AI6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AJ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AK6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AL6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AM6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AN6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AO6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AP6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AQ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AR6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AS6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AT6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AU6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AV6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AW6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AX6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AY6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AZ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="BA6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>1.265019766896436</v>
-      </c>
-      <c r="D7">
-        <v>1.028581259947292</v>
-      </c>
-      <c r="E7">
-        <v>1.858657482882586</v>
-      </c>
-      <c r="F7">
-        <v>-2.340608900318997</v>
-      </c>
-      <c r="G7">
-        <v>-1.890773121057054</v>
-      </c>
-      <c r="H7">
-        <v>-0.1384957661262898</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>-0.1878451124956104</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="J7">
-        <v>0.07112839993437259</v>
+        <v>3.296123089243497</v>
       </c>
       <c r="K7">
-        <v>0.05207435813390227</v>
+        <v>1.609625625599986</v>
       </c>
       <c r="L7">
-        <v>0.1732386938002817</v>
+        <v>1.029202372425875</v>
       </c>
       <c r="M7">
-        <v>0.1732386938002817</v>
+        <v>1.070385798714391</v>
       </c>
       <c r="N7">
-        <v>0.1732386938002817</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="O7">
-        <v>0.1732386938002817</v>
+        <v>0.8868187137053063</v>
       </c>
       <c r="P7">
-        <v>0.1732386938002817</v>
+        <v>0.7908909437269962</v>
       </c>
       <c r="Q7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="R7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="S7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="T7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="U7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="V7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="W7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="X7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="Y7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="Z7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AA7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AB7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AC7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AD7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AE7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AF7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AG7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AH7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AI7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AJ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AK7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AL7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AM7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AN7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AO7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AP7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AQ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AR7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AS7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AT7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AU7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AV7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AW7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AX7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AY7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AZ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="BA7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>1.858657482882564</v>
-      </c>
-      <c r="F8">
-        <v>-3.490791585551412</v>
-      </c>
-      <c r="G8">
-        <v>-3.246097549514837</v>
-      </c>
-      <c r="H8">
-        <v>1.659950937631938</v>
-      </c>
-      <c r="I8">
-        <v>1.89156560755015</v>
-      </c>
-      <c r="J8">
-        <v>1.566479473280147</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>1.605821507009142</v>
+        <v>1.609625625600031</v>
       </c>
       <c r="L8">
-        <v>1.840891710989356</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="M8">
-        <v>1.840891710989356</v>
+        <v>3.238605209600021</v>
       </c>
       <c r="N8">
-        <v>2.130327852244052</v>
+        <v>0.7004752402133052</v>
       </c>
       <c r="O8">
-        <v>2.130327852244052</v>
+        <v>1.384186838979828</v>
       </c>
       <c r="P8">
-        <v>2.130327852244052</v>
+        <v>0.9180054319587239</v>
       </c>
       <c r="Q8">
-        <v>2.130327852244052</v>
+        <v>0.8526770253993288</v>
       </c>
       <c r="R8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="S8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="T8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="U8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="V8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="W8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="X8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="Y8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="Z8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AA8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AB8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AC8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AD8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AE8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AF8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AG8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AH8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AI8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AJ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AK8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AL8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AM8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AN8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AO8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AP8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AQ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AR8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AS8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AT8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AU8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AV8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AW8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AX8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AY8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AZ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="BA8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-3.246097549514826</v>
-      </c>
-      <c r="H9">
-        <v>1.609625625599986</v>
-      </c>
-      <c r="I9">
-        <v>1.609625625599986</v>
-      </c>
-      <c r="J9">
-        <v>2.497560574935442</v>
-      </c>
-      <c r="K9">
-        <v>1.113165545862094</v>
-      </c>
-      <c r="L9">
-        <v>0.7307568962936939</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.9629872437042719</v>
+        <v>3.238605209600021</v>
       </c>
       <c r="N9">
-        <v>1.114185601241058</v>
+        <v>0.4006004000999708</v>
       </c>
       <c r="O9">
-        <v>1.114185601241058</v>
+        <v>2.777885851461526</v>
       </c>
       <c r="P9">
-        <v>1.019364148315161</v>
+        <v>2.577405783391451</v>
       </c>
       <c r="Q9">
-        <v>1.019364148315161</v>
+        <v>2.349355943833076</v>
       </c>
       <c r="R9">
-        <v>1.019364148315161</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="S9">
-        <v>1.019364148315161</v>
+        <v>2.015454603059808</v>
       </c>
       <c r="T9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="U9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="V9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="W9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="X9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="Y9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="Z9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AA9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AB9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AC9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AD9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AE9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AF9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AG9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AH9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AI9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AJ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AK9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AL9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AM9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AN9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AO9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AP9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AQ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AR9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AS9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AT9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AU9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AV9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AW9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AX9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AY9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AZ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="BA9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>1.609625625599986</v>
-      </c>
-      <c r="J10">
-        <v>3.296123089243497</v>
-      </c>
-      <c r="K10">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="L10">
-        <v>1.029202372425875</v>
-      </c>
-      <c r="M10">
-        <v>1.070385798714391</v>
-      </c>
-      <c r="N10">
-        <v>0.818818812164257</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.8868187137053507</v>
+        <v>2.777885851461503</v>
       </c>
       <c r="P10">
-        <v>0.7908909437270184</v>
+        <v>2.938693995785213</v>
       </c>
       <c r="Q10">
-        <v>0.8966256141480056</v>
+        <v>2.436566844071941</v>
       </c>
       <c r="R10">
-        <v>0.8966256141480056</v>
+        <v>2.047428048848809</v>
       </c>
       <c r="S10">
-        <v>0.8966256141480056</v>
+        <v>1.78642563555842</v>
       </c>
       <c r="T10">
-        <v>0.8966256141480056</v>
+        <v>1.755995812646982</v>
       </c>
       <c r="U10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="V10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="W10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="X10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="Y10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="Z10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AA10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AB10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AC10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AD10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AE10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AF10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AG10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AH10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AI10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AJ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AK10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AL10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AM10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AN10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AO10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AP10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AQ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AR10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AS10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AT10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AU10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AV10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AW10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AX10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AY10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AZ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="BA10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.609625625599986</v>
-      </c>
-      <c r="L11">
-        <v>1.205410808099949</v>
-      </c>
-      <c r="M11">
-        <v>3.238605209599998</v>
-      </c>
-      <c r="N11">
-        <v>0.7004752402133052</v>
-      </c>
-      <c r="O11">
-        <v>1.384186838979806</v>
-      </c>
-      <c r="P11">
-        <v>0.9180054319587239</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.852677025399351</v>
+        <v>2.436566844071897</v>
       </c>
       <c r="R11">
-        <v>0.4602645177979703</v>
+        <v>2.329827032268672</v>
       </c>
       <c r="S11">
-        <v>0.4602645177979703</v>
+        <v>1.694971351092267</v>
       </c>
       <c r="T11">
-        <v>0.4602645177979703</v>
+        <v>1.552965246735782</v>
       </c>
       <c r="U11">
-        <v>0.4602645177979703</v>
+        <v>1.331333081915509</v>
       </c>
       <c r="V11">
-        <v>0.4602645177979703</v>
+        <v>1.946965557828384</v>
       </c>
       <c r="W11">
-        <v>0.4602645177979703</v>
+        <v>1.889651782168578</v>
       </c>
       <c r="X11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="Y11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="Z11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AA11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AB11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AC11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AD11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AE11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AF11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AG11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AH11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AI11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AJ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AK11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AL11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AM11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AN11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AO11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AP11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AQ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AR11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AS11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AT11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AU11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AV11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AW11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AX11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AY11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AZ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="BA11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>3.238605209599976</v>
-      </c>
-      <c r="N12">
-        <v>0.4006004000999708</v>
-      </c>
-      <c r="O12">
-        <v>2.777885851461503</v>
-      </c>
-      <c r="P12">
-        <v>2.577405783391451</v>
-      </c>
-      <c r="Q12">
-        <v>2.349355943833098</v>
-      </c>
-      <c r="R12">
-        <v>1.984684278296656</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.015454603059785</v>
+        <v>1.694971351092245</v>
       </c>
       <c r="T12">
-        <v>2.15203587434587</v>
+        <v>1.600782482652674</v>
       </c>
       <c r="U12">
-        <v>2.15203587434587</v>
+        <v>1.216098605743343</v>
       </c>
       <c r="V12">
-        <v>2.15203587434587</v>
+        <v>0.232608152956959</v>
       </c>
       <c r="W12">
-        <v>2.15203587434587</v>
+        <v>0.5221702820068952</v>
       </c>
       <c r="X12">
-        <v>2.15203587434587</v>
+        <v>1.282262557986469</v>
       </c>
       <c r="Y12">
-        <v>2.15203587434587</v>
+        <v>1.238324979098082</v>
       </c>
       <c r="Z12">
-        <v>2.15203587434587</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="AA12">
-        <v>2.15203587434587</v>
+        <v>0.9397793120336617</v>
       </c>
       <c r="AB12">
-        <v>2.15203587434587</v>
+        <v>0.8882776018738658</v>
       </c>
       <c r="AC12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AD12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AE12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AF12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AG12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AH12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AI12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AJ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AK12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AL12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AM12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AN12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AO12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AP12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AQ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AR12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AS12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AT12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AU12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AV12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AW12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AX12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AY12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AZ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="BA12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.777885851461526</v>
-      </c>
-      <c r="P13">
-        <v>2.938693995785235</v>
-      </c>
-      <c r="Q13">
-        <v>2.436566844071941</v>
-      </c>
-      <c r="R13">
-        <v>2.047428048848832</v>
-      </c>
-      <c r="S13">
-        <v>1.786425635558397</v>
-      </c>
-      <c r="T13">
-        <v>1.755995812646982</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.918040486507278</v>
+        <v>1.216098605743343</v>
       </c>
       <c r="V13">
-        <v>1.918040486507278</v>
+        <v>-0.5402301586655667</v>
       </c>
       <c r="W13">
-        <v>1.918040486507278</v>
+        <v>0.03619160485377471</v>
       </c>
       <c r="X13">
-        <v>1.918040486507278</v>
+        <v>1.784618024189033</v>
       </c>
       <c r="Y13">
-        <v>1.918040486507278</v>
+        <v>1.281608622679209</v>
       </c>
       <c r="Z13">
-        <v>1.918040486507278</v>
+        <v>-0.6993904531539141</v>
       </c>
       <c r="AA13">
-        <v>1.918040486507278</v>
+        <v>0.5141202228481356</v>
       </c>
       <c r="AB13">
-        <v>1.918040486507278</v>
+        <v>2.247109253368307</v>
       </c>
       <c r="AC13">
-        <v>1.918040486507278</v>
+        <v>1.254519294658696</v>
       </c>
       <c r="AD13">
-        <v>1.918040486507278</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="AE13">
-        <v>1.918040486507278</v>
+        <v>1.364710965483651</v>
       </c>
       <c r="AF13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AG13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AH13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AI13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AJ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AK13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AL13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AM13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AN13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AO13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AP13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AQ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AR13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AS13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AT13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AU13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AV13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AW13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AX13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AY13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AZ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="BA13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>2.436566844071919</v>
-      </c>
-      <c r="R14">
-        <v>2.32982703226865</v>
-      </c>
-      <c r="S14">
-        <v>1.694971351092267</v>
-      </c>
-      <c r="T14">
-        <v>1.55296524673576</v>
-      </c>
-      <c r="U14">
-        <v>1.331333081915509</v>
-      </c>
-      <c r="V14">
-        <v>1.946965557828384</v>
-      </c>
-      <c r="W14">
-        <v>1.889651782168622</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>1.673405723817378</v>
+        <v>1.784618024189033</v>
       </c>
       <c r="Y14">
-        <v>1.673405723817378</v>
+        <v>1.226888144839111</v>
       </c>
       <c r="Z14">
-        <v>1.673405723817378</v>
+        <v>-1.194610791899986</v>
       </c>
       <c r="AA14">
-        <v>1.673405723817378</v>
+        <v>0.8660061896410554</v>
       </c>
       <c r="AB14">
-        <v>1.673405723817378</v>
+        <v>4.887093273600018</v>
       </c>
       <c r="AC14">
-        <v>1.673405723817378</v>
+        <v>0.5495555957892195</v>
       </c>
       <c r="AD14">
-        <v>1.673405723817378</v>
+        <v>1.656460003703519</v>
       </c>
       <c r="AE14">
-        <v>1.673405723817378</v>
+        <v>0.6311979695890368</v>
       </c>
       <c r="AF14">
-        <v>1.673405723817378</v>
+        <v>-4.247034401476779</v>
       </c>
       <c r="AG14">
-        <v>1.673405723817378</v>
+        <v>-9.171727975571519</v>
       </c>
       <c r="AH14">
-        <v>1.673405723817378</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="AI14">
-        <v>1.673405723817378</v>
+        <v>-4.277673934072568</v>
       </c>
       <c r="AJ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AK14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AL14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AM14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AN14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AO14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AP14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AQ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AR14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AS14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AT14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AU14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AV14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AW14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AX14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AY14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AZ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="BA14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.694971351092245</v>
-      </c>
-      <c r="T15">
-        <v>1.600782482652674</v>
-      </c>
-      <c r="U15">
-        <v>1.216098605743365</v>
-      </c>
-      <c r="V15">
-        <v>0.2326081529569146</v>
-      </c>
-      <c r="W15">
-        <v>0.522170282006873</v>
-      </c>
-      <c r="X15">
-        <v>1.282262557986447</v>
-      </c>
-      <c r="Y15">
-        <v>1.238324979098038</v>
-      </c>
-      <c r="Z15">
-        <v>1.06432145354225</v>
-      </c>
-      <c r="AA15">
-        <v>0.9397793120336395</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.8882776018738214</v>
+        <v>4.887093273599996</v>
       </c>
       <c r="AC15">
-        <v>0.7965036850253293</v>
+        <v>0.3769388558005682</v>
       </c>
       <c r="AD15">
-        <v>0.7965036850253293</v>
+        <v>1.740752722258376</v>
       </c>
       <c r="AE15">
-        <v>0.7965036850253293</v>
+        <v>0.07482640125564544</v>
       </c>
       <c r="AF15">
-        <v>0.7965036850253293</v>
+        <v>-12.19860234240002</v>
       </c>
       <c r="AG15">
-        <v>0.7965036850253293</v>
+        <v>-35.38741355739603</v>
       </c>
       <c r="AH15">
-        <v>0.7965036850253293</v>
+        <v>31.54369540926345</v>
       </c>
       <c r="AI15">
-        <v>0.7965036850253293</v>
+        <v>-7.006249401853603</v>
       </c>
       <c r="AJ15">
-        <v>0.7965036850253293</v>
+        <v>-8.773175314851734</v>
       </c>
       <c r="AK15">
-        <v>0.7965036850253293</v>
+        <v>-2.664090177971856</v>
       </c>
       <c r="AL15">
-        <v>0.7965036850253293</v>
+        <v>-1.761645650979182</v>
       </c>
       <c r="AM15">
-        <v>0.7965036850253293</v>
+        <v>-1.756736100255085</v>
       </c>
       <c r="AN15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AO15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AP15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AQ15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AR15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AS15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AT15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AU15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AV15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AW15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AX15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AY15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AZ15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="BA15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.216098605743365</v>
-      </c>
-      <c r="V16">
-        <v>-0.5402301586655667</v>
-      </c>
-      <c r="W16">
-        <v>0.03619160485377471</v>
-      </c>
-      <c r="X16">
-        <v>1.784618024189011</v>
-      </c>
-      <c r="Y16">
-        <v>1.281608622679231</v>
-      </c>
-      <c r="Z16">
-        <v>-0.6993904531539141</v>
-      </c>
-      <c r="AA16">
-        <v>0.5141202228481356</v>
-      </c>
-      <c r="AB16">
-        <v>2.247109253368285</v>
-      </c>
-      <c r="AC16">
-        <v>1.254519294658696</v>
-      </c>
-      <c r="AD16">
-        <v>1.361817904277696</v>
-      </c>
-      <c r="AE16">
-        <v>1.364710965483651</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>1.420403924237745</v>
+        <v>-12.19860234240001</v>
       </c>
       <c r="AG16">
-        <v>1.420403924237745</v>
+        <v>-37.02357047951494</v>
       </c>
       <c r="AH16">
-        <v>1.420403924237745</v>
+        <v>50.80309717929863</v>
       </c>
       <c r="AI16">
-        <v>1.420403924237745</v>
+        <v>-12.66856409363488</v>
       </c>
       <c r="AJ16">
-        <v>1.420403924237745</v>
+        <v>-19.76612614777711</v>
       </c>
       <c r="AK16">
-        <v>1.420403924237745</v>
+        <v>11.21653887140452</v>
       </c>
       <c r="AL16">
-        <v>1.420403924237745</v>
+        <v>22.41808675646531</v>
       </c>
       <c r="AM16">
-        <v>1.420403924237745</v>
+        <v>0.421655805130472</v>
       </c>
       <c r="AN16">
-        <v>1.420403924237745</v>
+        <v>3.555435198576862</v>
       </c>
       <c r="AO16">
-        <v>1.420403924237745</v>
+        <v>5.042810166847067</v>
       </c>
       <c r="AP16">
-        <v>1.420403924237745</v>
+        <v>5.20787683103745</v>
       </c>
       <c r="AQ16">
-        <v>1.420403924237745</v>
+        <v>4.776616269723477</v>
       </c>
       <c r="AR16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AS16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AT16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AU16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AV16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AW16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AX16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AY16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AZ16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="BA16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.784618024189033</v>
-      </c>
-      <c r="Y17">
-        <v>1.226888144839089</v>
-      </c>
-      <c r="Z17">
-        <v>-1.194610791900008</v>
-      </c>
-      <c r="AA17">
-        <v>0.8660061896410332</v>
-      </c>
-      <c r="AB17">
-        <v>4.887093273600018</v>
-      </c>
-      <c r="AC17">
-        <v>0.5495555957892417</v>
-      </c>
-      <c r="AD17">
-        <v>1.656460003703519</v>
-      </c>
-      <c r="AE17">
-        <v>0.631197969589059</v>
-      </c>
-      <c r="AF17">
-        <v>-4.247034401476801</v>
-      </c>
-      <c r="AG17">
-        <v>-9.171727975571509</v>
-      </c>
-      <c r="AH17">
-        <v>-4.352425014431304</v>
-      </c>
-      <c r="AI17">
-        <v>-4.277673934072568</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-4.401478753282284</v>
+        <v>-19.76612614777711</v>
       </c>
       <c r="AK17">
-        <v>-4.401478753282284</v>
+        <v>13.57228818924523</v>
       </c>
       <c r="AL17">
-        <v>-4.401478753282284</v>
+        <v>27.23725989922561</v>
       </c>
       <c r="AM17">
-        <v>-4.401478753282284</v>
+        <v>-6.821105596638954</v>
       </c>
       <c r="AN17">
-        <v>-4.401478753282284</v>
+        <v>-0.5376914776811237</v>
       </c>
       <c r="AO17">
-        <v>-4.401478753282284</v>
+        <v>3.311762715735989</v>
       </c>
       <c r="AP17">
-        <v>-4.401478753282284</v>
+        <v>4.121778551214828</v>
       </c>
       <c r="AQ17">
-        <v>-4.401478753282284</v>
+        <v>-1.548915741813695</v>
       </c>
       <c r="AR17">
-        <v>-4.401478753282284</v>
+        <v>-2.16280394131193</v>
       </c>
       <c r="AS17">
-        <v>-4.401478753282284</v>
+        <v>-0.5369231962162102</v>
       </c>
       <c r="AT17">
-        <v>-4.401478753282284</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="AU17">
-        <v>-4.401478753282284</v>
+        <v>-0.6887889394080915</v>
       </c>
       <c r="AV17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AW17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AX17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AY17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AZ17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="BA17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>4.887093273599996</v>
-      </c>
-      <c r="AC18">
-        <v>0.3769388558005238</v>
-      </c>
-      <c r="AD18">
-        <v>1.740752722258398</v>
-      </c>
-      <c r="AE18">
-        <v>0.07482640125562323</v>
-      </c>
-      <c r="AF18">
-        <v>-12.1986023424</v>
-      </c>
-      <c r="AG18">
-        <v>-35.38741355739603</v>
-      </c>
-      <c r="AH18">
-        <v>31.54369540926341</v>
-      </c>
-      <c r="AI18">
-        <v>-7.006249401853559</v>
-      </c>
-      <c r="AJ18">
-        <v>-8.773175314851734</v>
-      </c>
-      <c r="AK18">
-        <v>-2.664090177971845</v>
-      </c>
-      <c r="AL18">
-        <v>-1.761645650979182</v>
-      </c>
-      <c r="AM18">
-        <v>-1.756736100255085</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>-1.740831309918522</v>
+        <v>-0.5376914776811348</v>
       </c>
       <c r="AO18">
-        <v>-1.740831309918522</v>
+        <v>3.312501296418002</v>
       </c>
       <c r="AP18">
-        <v>-1.740831309918522</v>
+        <v>4.216800125222409</v>
       </c>
       <c r="AQ18">
-        <v>-1.740831309918522</v>
+        <v>-3.955662492975198</v>
       </c>
       <c r="AR18">
-        <v>-1.740831309918522</v>
+        <v>-4.829433539906869</v>
       </c>
       <c r="AS18">
-        <v>-1.740831309918522</v>
+        <v>0.09950561885605502</v>
       </c>
       <c r="AT18">
-        <v>-1.740831309918522</v>
+        <v>-0.9756765446554017</v>
       </c>
       <c r="AU18">
-        <v>-1.740831309918522</v>
+        <v>0.5260208614076722</v>
       </c>
       <c r="AV18">
-        <v>-1.740831309918522</v>
+        <v>-0.244366674180263</v>
       </c>
       <c r="AW18">
-        <v>-1.740831309918522</v>
+        <v>0.4276194584983628</v>
       </c>
       <c r="AX18">
-        <v>-1.740831309918522</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="AY18">
-        <v>-1.740831309918522</v>
+        <v>0.5424001444948034</v>
       </c>
       <c r="AZ18">
-        <v>-1.740831309918522</v>
+        <v>0.4368922194300628</v>
       </c>
       <c r="BA18">
-        <v>-1.740831309918522</v>
+        <v>0.4368922194300628</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-12.1986023424</v>
-      </c>
-      <c r="AG19">
-        <v>-37.02357047951496</v>
-      </c>
-      <c r="AH19">
-        <v>50.80309717929863</v>
-      </c>
-      <c r="AI19">
-        <v>-12.66856409363487</v>
-      </c>
-      <c r="AJ19">
-        <v>-19.76612614777711</v>
-      </c>
-      <c r="AK19">
-        <v>11.21653887140448</v>
-      </c>
-      <c r="AL19">
-        <v>22.41808675646528</v>
-      </c>
-      <c r="AM19">
-        <v>0.4216558051304942</v>
-      </c>
-      <c r="AN19">
-        <v>3.555435198576862</v>
-      </c>
-      <c r="AO19">
-        <v>5.042810166847089</v>
-      </c>
-      <c r="AP19">
-        <v>5.20787683103745</v>
-      </c>
-      <c r="AQ19">
-        <v>4.776616269723477</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>5.273473699172748</v>
+        <v>-4.829433539906902</v>
       </c>
       <c r="AS19">
-        <v>5.273473699172748</v>
+        <v>0.1895529139763985</v>
       </c>
       <c r="AT19">
-        <v>5.273473699172748</v>
+        <v>-1.058477995956231</v>
       </c>
       <c r="AU19">
-        <v>5.273473699172748</v>
+        <v>0.9503229429644433</v>
       </c>
       <c r="AV19">
-        <v>5.273473699172748</v>
+        <v>-1.64927836088965</v>
       </c>
       <c r="AW19">
-        <v>5.273473699172748</v>
+        <v>-0.7585430378855618</v>
       </c>
       <c r="AX19">
-        <v>5.273473699172748</v>
+        <v>0.7075860014263302</v>
       </c>
       <c r="AY19">
-        <v>5.273473699172748</v>
+        <v>0.3683024421824888</v>
       </c>
       <c r="AZ19">
-        <v>5.273473699172748</v>
+        <v>1.211873835667365</v>
       </c>
       <c r="BA19">
-        <v>5.273473699172748</v>
+        <v>0.9621815008244994</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-19.76612614777711</v>
-      </c>
-      <c r="AK20">
-        <v>13.57228818924523</v>
-      </c>
-      <c r="AL20">
-        <v>27.23725989922563</v>
-      </c>
-      <c r="AM20">
-        <v>-6.821105596638944</v>
-      </c>
-      <c r="AN20">
-        <v>-0.5376914776811126</v>
-      </c>
-      <c r="AO20">
-        <v>3.311762715735989</v>
-      </c>
-      <c r="AP20">
-        <v>4.121778551214828</v>
-      </c>
-      <c r="AQ20">
-        <v>-1.548915741813683</v>
-      </c>
-      <c r="AR20">
-        <v>-2.16280394131193</v>
-      </c>
-      <c r="AS20">
-        <v>-0.5369231962161769</v>
-      </c>
-      <c r="AT20">
-        <v>-0.9008525709169546</v>
-      </c>
-      <c r="AU20">
-        <v>-0.6887889394080693</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.7058256052666523</v>
+        <v>-1.649278360889672</v>
       </c>
       <c r="AW20">
-        <v>-0.7058256052666523</v>
+        <v>-0.8850270640324842</v>
       </c>
       <c r="AX20">
-        <v>-0.7058256052666523</v>
+        <v>1.159998310701771</v>
       </c>
       <c r="AY20">
-        <v>-0.7058256052666523</v>
+        <v>0.3338002926567718</v>
       </c>
       <c r="AZ20">
-        <v>-0.7058256052666523</v>
+        <v>1.973770215219273</v>
       </c>
       <c r="BA20">
-        <v>-0.7058256052666523</v>
+        <v>0.3540813801726106</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-0.5376914776811015</v>
-      </c>
-      <c r="AO21">
-        <v>3.31250129641798</v>
-      </c>
-      <c r="AP21">
-        <v>4.216800125222386</v>
-      </c>
-      <c r="AQ21">
-        <v>-3.955662492975165</v>
-      </c>
-      <c r="AR21">
-        <v>-4.829433539906846</v>
-      </c>
-      <c r="AS21">
-        <v>0.09950561885601061</v>
-      </c>
-      <c r="AT21">
-        <v>-0.9756765446553795</v>
-      </c>
-      <c r="AU21">
-        <v>0.5260208614076722</v>
-      </c>
-      <c r="AV21">
-        <v>-0.2443666741802408</v>
-      </c>
-      <c r="AW21">
-        <v>0.4276194584983628</v>
-      </c>
-      <c r="AX21">
-        <v>0.2738544794132824</v>
-      </c>
-      <c r="AY21">
-        <v>0.5424001444948257</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>0.4368922194300628</v>
+        <v>1.97377021521925</v>
       </c>
       <c r="BA21">
-        <v>0.4368922194300628</v>
+        <v>0.2190901804872247</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-4.82943353990688</v>
-      </c>
-      <c r="AS22">
-        <v>0.1895529139764429</v>
-      </c>
-      <c r="AT22">
-        <v>-1.058477995956209</v>
-      </c>
-      <c r="AU22">
-        <v>0.9503229429644211</v>
-      </c>
-      <c r="AV22">
-        <v>-1.649278360889672</v>
-      </c>
-      <c r="AW22">
-        <v>-0.7585430378855507</v>
-      </c>
-      <c r="AX22">
-        <v>0.7075860014263302</v>
-      </c>
-      <c r="AY22">
-        <v>0.3683024421824665</v>
-      </c>
-      <c r="AZ22">
-        <v>1.211873835667365</v>
-      </c>
-      <c r="BA22">
-        <v>0.9621815008244994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-1.649278360889661</v>
-      </c>
-      <c r="AW23">
-        <v>-0.8850270640324731</v>
-      </c>
-      <c r="AX23">
-        <v>1.159998310701793</v>
-      </c>
-      <c r="AY23">
-        <v>0.333800292656794</v>
-      </c>
-      <c r="AZ23">
-        <v>1.973770215219273</v>
-      </c>
-      <c r="BA23">
-        <v>0.3540813801726328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>1.973770215219273</v>
-      </c>
-      <c r="BA24">
-        <v>0.2190901804872247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>0.2361821772587591</v>
       </c>
+      <c r="BB3">
+        <v>0.2361821772587591</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>0.1732386938003039</v>
       </c>
+      <c r="BB4">
+        <v>0.1732386938003039</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>2.130327852244007</v>
       </c>
+      <c r="BB5">
+        <v>2.130327852244007</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>1.019364148315116</v>
       </c>
+      <c r="BB6">
+        <v>1.019364148315116</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.8966256141480056</v>
       </c>
+      <c r="BB7">
+        <v>0.8966256141480056</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>0.4602645177979703</v>
       </c>
+      <c r="BB8">
+        <v>0.4602645177979703</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>2.152035874345892</v>
       </c>
+      <c r="BB9">
+        <v>2.152035874345892</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>1.918040486507278</v>
       </c>
+      <c r="BB10">
+        <v>1.918040486507278</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>1.673405723817356</v>
       </c>
+      <c r="BB11">
+        <v>1.673405723817356</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>0.7965036850253515</v>
       </c>
+      <c r="BB12">
+        <v>0.7965036850253515</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>1.420403924237745</v>
       </c>
+      <c r="BB13">
+        <v>1.420403924237745</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-4.401478753282307</v>
       </c>
+      <c r="BB14">
+        <v>-4.401478753282307</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>-1.740831309918522</v>
       </c>
+      <c r="BB15">
+        <v>-1.740831309918522</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>5.27347369917277</v>
       </c>
+      <c r="BB16">
+        <v>5.27347369917277</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.7058256052666523</v>
       </c>
+      <c r="BB17">
+        <v>-0.7058256052666523</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>0.4368922194300628</v>
       </c>
+      <c r="BB18">
+        <v>0.4368922194300628</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>0.9621815008244994</v>
       </c>
+      <c r="BB19">
+        <v>0.8976398032236155</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>0.3540813801726106</v>
       </c>
+      <c r="BB20">
+        <v>-0.6203510926954925</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>0.2190901804872247</v>
       </c>
+      <c r="BB21">
+        <v>-1.016686374377895</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
